--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30402_外部システムIF(複数図番指定)画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30402_外部システムIF(複数図番指定)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F3ABD-CB5E-4C64-8BDC-AF4B882102AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E81461-E439-4CFC-9766-7F2D5B7C43FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部システムIF(複数図番指定)画面" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="211">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -2522,6 +2533,29 @@
     </rPh>
     <rPh sb="424" eb="426">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG⇒OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2778,13 +2812,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2963,10 +3000,20 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{CB2EF7C0-953C-49F2-B24E-A924E5B731FC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3249,30 +3296,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="29.0703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="46.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="84.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.2109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="45.78515625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="29.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.75" style="1" customWidth="1"/>
+    <col min="9" max="15" width="46.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="84.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="45.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="47" t="s">
         <v>13</v>
       </c>
@@ -3283,7 +3330,7 @@
       <c r="F1" s="49"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3347,7 @@
       </c>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="52" t="s">
         <v>12</v>
       </c>
@@ -3317,7 +3364,7 @@
       </c>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
         <v>2</v>
       </c>
@@ -3328,7 +3375,7 @@
       <c r="F4" s="49"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:10" ht="225" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" ht="225" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="54" t="s">
         <v>205</v>
       </c>
@@ -3341,7 +3388,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="28"/>
       <c r="B6" s="57" t="s">
         <v>20</v>
@@ -3359,7 +3406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="s">
         <v>46</v>
       </c>
@@ -3389,7 +3436,7 @@
       </c>
       <c r="J7" s="45"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="37" t="s">
         <v>121</v>
       </c>
@@ -3419,7 +3466,7 @@
       </c>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>122</v>
       </c>
@@ -3451,7 +3498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
         <v>123</v>
       </c>
@@ -3483,7 +3530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>124</v>
       </c>
@@ -3515,7 +3562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
         <v>125</v>
       </c>
@@ -3547,7 +3594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
         <v>126</v>
       </c>
@@ -3579,7 +3626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
         <v>127</v>
       </c>
@@ -3611,7 +3658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
         <v>128</v>
       </c>
@@ -3643,7 +3690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="37" t="s">
         <v>129</v>
       </c>
@@ -3675,7 +3722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="18.45" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:20" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="28"/>
       <c r="B18" s="43" t="s">
         <v>20</v>
@@ -3695,7 +3742,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="29"/>
       <c r="B19" s="30" t="s">
         <v>23</v>
@@ -3723,7 +3770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A20" s="27"/>
       <c r="B20" s="24">
         <v>123456</v>
@@ -3753,7 +3800,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="27"/>
       <c r="B21" s="24" t="s">
         <v>43</v>
@@ -3782,8 +3829,15 @@
       <c r="J21" s="36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="Q21" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="R21" s="61">
+        <f>COUNTIF(Q$30:Q$995,Q21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" s="27"/>
       <c r="B22" s="24" t="s">
         <v>44</v>
@@ -3812,8 +3866,15 @@
       <c r="J22" s="24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+      <c r="Q22" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="R22" s="61">
+        <f>COUNTIF(Q$30:Q$995,Q22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A23" s="27"/>
       <c r="B23" s="24" t="s">
         <v>39</v>
@@ -3842,8 +3903,15 @@
       <c r="J23" s="36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+      <c r="Q23" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="R23" s="61">
+        <f>COUNTIF(Q$30:Q$995,Q23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="27"/>
       <c r="B24" s="24" t="s">
         <v>40</v>
@@ -3872,8 +3940,15 @@
       <c r="J24" s="36" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+      <c r="Q24" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="R24" s="61">
+        <f>COUNTIF(Q$30:Q$995,Q24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="27"/>
       <c r="B25" s="24" t="s">
         <v>45</v>
@@ -3902,8 +3977,15 @@
       <c r="J25" s="36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+      <c r="Q25" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="R25" s="62" t="str">
+        <f>"未実施："&amp;COUNTA(P$30:P$995)-SUM(R21:R24)&amp;"／実施済："&amp;SUM(R21:R24)</f>
+        <v>未実施：60／実施済：0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="27"/>
       <c r="B26" s="24" t="s">
         <v>41</v>
@@ -3933,7 +4015,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" s="27"/>
       <c r="B27" s="24" t="s">
         <v>58</v>
@@ -3949,7 +4031,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
@@ -3989,7 +4071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:20" ht="126" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>1</v>
       </c>
@@ -4037,7 +4119,7 @@
       <c r="S30" s="13"/>
       <c r="T30" s="15"/>
     </row>
-    <row r="31" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>2</v>
       </c>
@@ -4073,7 +4155,7 @@
       <c r="S31" s="13"/>
       <c r="T31" s="15"/>
     </row>
-    <row r="32" spans="1:20" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>3</v>
       </c>
@@ -4111,7 +4193,7 @@
       <c r="S32" s="13"/>
       <c r="T32" s="15"/>
     </row>
-    <row r="33" spans="1:20" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>4</v>
       </c>
@@ -4139,7 +4221,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="15"/>
     </row>
-    <row r="34" spans="1:20" ht="293.14999999999998" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:20" ht="299.25" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>5</v>
       </c>
@@ -4175,7 +4257,7 @@
       <c r="S34" s="13"/>
       <c r="T34" s="15"/>
     </row>
-    <row r="35" spans="1:20" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:20" ht="63" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>6</v>
       </c>
@@ -4203,7 +4285,7 @@
       <c r="S35" s="13"/>
       <c r="T35" s="15"/>
     </row>
-    <row r="36" spans="1:20" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>7</v>
       </c>
@@ -4231,7 +4313,7 @@
       <c r="S36" s="13"/>
       <c r="T36" s="15"/>
     </row>
-    <row r="37" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>8</v>
       </c>
@@ -4261,7 +4343,7 @@
       <c r="S37" s="13"/>
       <c r="T37" s="15"/>
     </row>
-    <row r="38" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>9</v>
       </c>
@@ -4291,7 +4373,7 @@
       <c r="S38" s="13"/>
       <c r="T38" s="15"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>10</v>
       </c>
@@ -4321,7 +4403,7 @@
       <c r="S39" s="13"/>
       <c r="T39" s="15"/>
     </row>
-    <row r="40" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>11</v>
       </c>
@@ -4349,7 +4431,7 @@
       <c r="S40" s="13"/>
       <c r="T40" s="15"/>
     </row>
-    <row r="41" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>12</v>
       </c>
@@ -4379,7 +4461,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="15"/>
     </row>
-    <row r="42" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>13</v>
       </c>
@@ -4407,7 +4489,7 @@
       <c r="S42" s="13"/>
       <c r="T42" s="15"/>
     </row>
-    <row r="43" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>14</v>
       </c>
@@ -4435,7 +4517,7 @@
       <c r="S43" s="13"/>
       <c r="T43" s="15"/>
     </row>
-    <row r="44" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>15</v>
       </c>
@@ -4465,7 +4547,7 @@
       <c r="S44" s="13"/>
       <c r="T44" s="15"/>
     </row>
-    <row r="45" spans="1:20" ht="108" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:20" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>16</v>
       </c>
@@ -4495,7 +4577,7 @@
       <c r="S45" s="13"/>
       <c r="T45" s="15"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>17</v>
       </c>
@@ -4523,7 +4605,7 @@
       <c r="S46" s="13"/>
       <c r="T46" s="15"/>
     </row>
-    <row r="47" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>18</v>
       </c>
@@ -4551,7 +4633,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="15"/>
     </row>
-    <row r="48" spans="1:20" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:20" ht="126" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>19</v>
       </c>
@@ -4593,7 +4675,7 @@
       <c r="S48" s="13"/>
       <c r="T48" s="15"/>
     </row>
-    <row r="49" spans="1:20" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:20" ht="63" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>20</v>
       </c>
@@ -4619,7 +4701,7 @@
       <c r="S49" s="13"/>
       <c r="T49" s="15"/>
     </row>
-    <row r="50" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>21</v>
       </c>
@@ -4647,7 +4729,7 @@
       <c r="S50" s="13"/>
       <c r="T50" s="15"/>
     </row>
-    <row r="51" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>22</v>
       </c>
@@ -4677,7 +4759,7 @@
       <c r="S51" s="13"/>
       <c r="T51" s="15"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>23</v>
       </c>
@@ -4705,7 +4787,7 @@
       <c r="S52" s="13"/>
       <c r="T52" s="15"/>
     </row>
-    <row r="53" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>24</v>
       </c>
@@ -4733,7 +4815,7 @@
       <c r="S53" s="13"/>
       <c r="T53" s="15"/>
     </row>
-    <row r="54" spans="1:20" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:20" ht="126" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>25</v>
       </c>
@@ -4773,7 +4855,7 @@
       <c r="S54" s="13"/>
       <c r="T54" s="15"/>
     </row>
-    <row r="55" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>26</v>
       </c>
@@ -4799,7 +4881,7 @@
       <c r="S55" s="13"/>
       <c r="T55" s="15"/>
     </row>
-    <row r="56" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>27</v>
       </c>
@@ -4827,7 +4909,7 @@
       <c r="S56" s="13"/>
       <c r="T56" s="15"/>
     </row>
-    <row r="57" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>28</v>
       </c>
@@ -4857,7 +4939,7 @@
       <c r="S57" s="13"/>
       <c r="T57" s="15"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>29</v>
       </c>
@@ -4885,7 +4967,7 @@
       <c r="S58" s="13"/>
       <c r="T58" s="15"/>
     </row>
-    <row r="59" spans="1:20" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:20" ht="126" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>30</v>
       </c>
@@ -4925,7 +5007,7 @@
       <c r="S59" s="13"/>
       <c r="T59" s="15"/>
     </row>
-    <row r="60" spans="1:20" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:20" ht="63" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>31</v>
       </c>
@@ -4951,7 +5033,7 @@
       <c r="S60" s="13"/>
       <c r="T60" s="15"/>
     </row>
-    <row r="61" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>32</v>
       </c>
@@ -4979,7 +5061,7 @@
       <c r="S61" s="13"/>
       <c r="T61" s="15"/>
     </row>
-    <row r="62" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>33</v>
       </c>
@@ -5009,7 +5091,7 @@
       <c r="S62" s="13"/>
       <c r="T62" s="15"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>34</v>
       </c>
@@ -5037,7 +5119,7 @@
       <c r="S63" s="13"/>
       <c r="T63" s="15"/>
     </row>
-    <row r="64" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>35</v>
       </c>
@@ -5065,7 +5147,7 @@
       <c r="S64" s="13"/>
       <c r="T64" s="15"/>
     </row>
-    <row r="65" spans="1:20" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:20" ht="126" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
         <v>36</v>
       </c>
@@ -5105,7 +5187,7 @@
       <c r="S65" s="13"/>
       <c r="T65" s="15"/>
     </row>
-    <row r="66" spans="1:20" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:20" ht="63" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>37</v>
       </c>
@@ -5131,7 +5213,7 @@
       <c r="S66" s="13"/>
       <c r="T66" s="15"/>
     </row>
-    <row r="67" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A67" s="9">
         <v>38</v>
       </c>
@@ -5159,7 +5241,7 @@
       <c r="S67" s="13"/>
       <c r="T67" s="15"/>
     </row>
-    <row r="68" spans="1:20" ht="108" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:20" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A68" s="9">
         <v>39</v>
       </c>
@@ -5189,7 +5271,7 @@
       <c r="S68" s="13"/>
       <c r="T68" s="15"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69" s="9">
         <v>40</v>
       </c>
@@ -5217,7 +5299,7 @@
       <c r="S69" s="13"/>
       <c r="T69" s="15"/>
     </row>
-    <row r="70" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>41</v>
       </c>
@@ -5245,7 +5327,7 @@
       <c r="S70" s="13"/>
       <c r="T70" s="15"/>
     </row>
-    <row r="71" spans="1:20" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A71" s="9">
         <v>42</v>
       </c>
@@ -5285,7 +5367,7 @@
       <c r="S71" s="13"/>
       <c r="T71" s="15"/>
     </row>
-    <row r="72" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
         <v>43</v>
       </c>
@@ -5313,7 +5395,7 @@
       <c r="S72" s="13"/>
       <c r="T72" s="15"/>
     </row>
-    <row r="73" spans="1:20" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A73" s="9">
         <v>44</v>
       </c>
@@ -5343,7 +5425,7 @@
       <c r="S73" s="13"/>
       <c r="T73" s="15"/>
     </row>
-    <row r="74" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>45</v>
       </c>
@@ -5371,7 +5453,7 @@
       <c r="S74" s="13"/>
       <c r="T74" s="15"/>
     </row>
-    <row r="75" spans="1:20" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:20" ht="126" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
         <v>46</v>
       </c>
@@ -5411,7 +5493,7 @@
       <c r="S75" s="13"/>
       <c r="T75" s="15"/>
     </row>
-    <row r="76" spans="1:20" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:20" ht="63" x14ac:dyDescent="0.4">
       <c r="A76" s="9">
         <v>47</v>
       </c>
@@ -5437,7 +5519,7 @@
       <c r="S76" s="13"/>
       <c r="T76" s="15"/>
     </row>
-    <row r="77" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A77" s="9">
         <v>48</v>
       </c>
@@ -5465,7 +5547,7 @@
       <c r="S77" s="13"/>
       <c r="T77" s="15"/>
     </row>
-    <row r="78" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>49</v>
       </c>
@@ -5495,7 +5577,7 @@
       <c r="S78" s="13"/>
       <c r="T78" s="15"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A79" s="9">
         <v>50</v>
       </c>
@@ -5523,7 +5605,7 @@
       <c r="S79" s="13"/>
       <c r="T79" s="15"/>
     </row>
-    <row r="80" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>51</v>
       </c>
@@ -5551,7 +5633,7 @@
       <c r="S80" s="13"/>
       <c r="T80" s="15"/>
     </row>
-    <row r="81" spans="1:20" ht="293.14999999999998" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:20" ht="299.25" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>52</v>
       </c>
@@ -5595,7 +5677,7 @@
       <c r="S81" s="13"/>
       <c r="T81" s="15"/>
     </row>
-    <row r="82" spans="1:20" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A82" s="9">
         <v>53</v>
       </c>
@@ -5621,7 +5703,7 @@
       <c r="S82" s="13"/>
       <c r="T82" s="15"/>
     </row>
-    <row r="83" spans="1:20" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>54</v>
       </c>
@@ -5649,7 +5731,7 @@
       <c r="S83" s="13"/>
       <c r="T83" s="15"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>55</v>
       </c>
@@ -5677,7 +5759,7 @@
       <c r="S84" s="13"/>
       <c r="T84" s="15"/>
     </row>
-    <row r="85" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A85" s="9">
         <v>56</v>
       </c>
@@ -5705,7 +5787,7 @@
       <c r="S85" s="13"/>
       <c r="T85" s="15"/>
     </row>
-    <row r="86" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A86" s="9">
         <v>57</v>
       </c>
@@ -5733,7 +5815,7 @@
       <c r="S86" s="13"/>
       <c r="T86" s="15"/>
     </row>
-    <row r="87" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A87" s="9">
         <v>58</v>
       </c>
@@ -5761,7 +5843,7 @@
       <c r="S87" s="13"/>
       <c r="T87" s="15"/>
     </row>
-    <row r="88" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A88" s="9">
         <v>59</v>
       </c>
@@ -5789,7 +5871,7 @@
       <c r="S88" s="13"/>
       <c r="T88" s="15"/>
     </row>
-    <row r="89" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A89" s="9">
         <v>60</v>
       </c>
@@ -5816,72 +5898,6 @@
       <c r="R89" s="14"/>
       <c r="S89" s="13"/>
       <c r="T89" s="15"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="15"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A91" s="9"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="15"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.65">
-      <c r="A92" s="9"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5905,6 +5921,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -6127,15 +6152,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6148,13 +6164,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B33542E-ECB5-499A-A365-33C330CC0AE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8591C8F-152B-43F8-9313-602CB0B2434E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8591C8F-152B-43F8-9313-602CB0B2434E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B33542E-ECB5-499A-A365-33C330CC0AE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A6ECDA-6B47-48F9-8EFC-7F6B60B64E6F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A6ECDA-6B47-48F9-8EFC-7F6B60B64E6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>